--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value16.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value16.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.35354380115978</v>
+        <v>4.193982601165771</v>
       </c>
       <c r="B1">
-        <v>1.763126132821783</v>
+        <v>6.009495258331299</v>
       </c>
       <c r="C1">
-        <v>1.83364306552015</v>
+        <v>4.91078519821167</v>
       </c>
       <c r="D1">
-        <v>2.060467289909952</v>
+        <v>5.704831123352051</v>
       </c>
       <c r="E1">
-        <v>1.738389978328057</v>
+        <v>5.061182975769043</v>
       </c>
     </row>
   </sheetData>
